--- a/Tablas Comparativas/Promedios Mejores BOFOA.xlsx
+++ b/Tablas Comparativas/Promedios Mejores BOFOA.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARCHIVOS\REPOSITORIO\Tablas Comparativas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9367EB1-6AC4-4762-814B-076A7D54C7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22770" windowHeight="12480" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitness best" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t xml:space="preserve"> BactOF</t>
   </si>
@@ -31,18 +37,70 @@
   <si>
     <t>Set C</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sets </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Algoritmos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sets </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Algoritmos</t>
+    </r>
+  </si>
+  <si>
+    <t>TABLA 4: Comparativa Fitness</t>
+  </si>
+  <si>
+    <t>TABLA 5: Comparativa NFE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,79 +109,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,71 +127,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,210 +140,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -431,41 +187,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,290 +203,82 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -788,13 +310,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES_tradnl" altLang="en-US"/>
+              <a:t>Gráfica 4:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl" altLang="en-US"/>
               <a:t>Comparativa de Fitness</a:t>
             </a:r>
-            <a:endParaRPr lang="es-ES_tradnl" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -803,6 +331,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -816,7 +364,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Fitness best'!$B$1</c:f>
+              <c:f>'Fitness best'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -835,12 +383,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Fitness best'!$A$2:$A$4</c:f>
+              <c:f>'Fitness best'!$A$3:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -857,7 +402,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fitness best'!$B$2:$B$4</c:f>
+              <c:f>'Fitness best'!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -865,7 +410,7 @@
                   <c:v>1431.86650584421</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4398.12393315763</c:v>
+                  <c:v>4398.1239331576298</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4027.76653077425</c:v>
@@ -873,13 +418,18 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-24EB-4967-BEEB-6667611D03F4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Fitness best'!$C$1</c:f>
+              <c:f>'Fitness best'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -898,12 +448,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Fitness best'!$A$2:$A$4</c:f>
+              <c:f>'Fitness best'!$A$3:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -920,22 +467,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fitness best'!$C$2:$C$4</c:f>
+              <c:f>'Fitness best'!$C$3:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1596.10137902138</c:v>
+                  <c:v>1596.1013790213799</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6604.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5901.30166666666</c:v>
+                  <c:v>5901.3016666666599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-24EB-4967-BEEB-6667611D03F4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -957,6 +509,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -990,6 +543,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="85416437"/>
@@ -1048,6 +602,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="417756829"/>
@@ -1064,7 +619,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1090,6 +644,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1119,6 +674,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1130,9 +686,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1163,13 +719,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>Comparativa de </a:t>
+              <a:rPr lang="es-MX"/>
+              <a:t>Gráfica 5: Comparativa de </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="es-ES_tradnl" altLang="en-US"/>
+              <a:rPr lang="es-MX" altLang="en-US"/>
               <a:t>NFE</a:t>
             </a:r>
-            <a:endParaRPr lang="es-ES_tradnl" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1177,8 +733,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.322638888888889"/>
-          <c:y val="0.03125"/>
+          <c:x val="0.22021803838765963"/>
+          <c:y val="3.1249869600958068E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1189,6 +745,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1202,7 +778,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NFE best'!$B$1</c:f>
+              <c:f>'NFE best'!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1221,12 +797,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'NFE best'!$A$2:$A$4</c:f>
+              <c:f>'NFE best'!$A$8:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1243,7 +816,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NFE best'!$B$2:$B$4</c:f>
+              <c:f>'NFE best'!$B$8:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1254,18 +827,23 @@
                   <c:v>653</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>670.733333333333</c:v>
+                  <c:v>670.73333333333301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8571-45A2-9DA2-BD6B6B995C49}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NFE best'!$C$1</c:f>
+              <c:f>'NFE best'!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1284,12 +862,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'NFE best'!$A$2:$A$4</c:f>
+              <c:f>'NFE best'!$A$8:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1306,7 +881,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NFE best'!$C$2:$C$4</c:f>
+              <c:f>'NFE best'!$C$8:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1317,11 +892,16 @@
                   <c:v>653</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>667.966666666667</c:v>
+                  <c:v>667.96666666666704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8571-45A2-9DA2-BD6B6B995C49}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1343,6 +923,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1376,6 +957,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="555592383"/>
@@ -1434,6 +1016,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="370827052"/>
@@ -1450,7 +1033,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1476,6 +1058,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1505,6 +1088,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2602,28 +2186,34 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>650875</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>422275</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>465415</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12250</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4794250" y="698500"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2637,28 +2227,34 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:colOff>96520</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>558760</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>103690</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4699000" y="2374900"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2923,129 +2519,155 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C4"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B3" s="3">
         <v>1431.86650584421</v>
       </c>
-      <c r="C2" s="4">
-        <v>1596.10137902138</v>
+      <c r="C3" s="3">
+        <v>1596.1013790213799</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>4398.12393315763</v>
+      <c r="B4" s="3">
+        <v>4398.1239331576298</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C4" s="3">
         <v>6604.24</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B5" s="3">
         <v>4027.76653077425</v>
       </c>
-      <c r="C4" s="4">
-        <v>5901.30166666666</v>
+      <c r="C5" s="3">
+        <v>5901.3016666666599</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A6:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B8" s="3">
         <v>653</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C8" s="3">
         <v>653</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B9" s="3">
         <v>653</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C9" s="3">
         <v>653</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>670.733333333333</v>
+      <c r="B10" s="3">
+        <v>670.73333333333301</v>
       </c>
-      <c r="C4" s="4">
-        <v>667.966666666667</v>
+      <c r="C10" s="3">
+        <v>667.96666666666704</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:C6"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>